--- a/FundamentosAnalytics/Excel/Exercicio2_funcoes_Vinicius.xlsx
+++ b/FundamentosAnalytics/Excel/Exercicio2_funcoes_Vinicius.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478392B8-5C3E-4158-A1A0-E7E1AD84A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD22D4-2AF4-4786-A024-38EA60BE2886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>Divisão por zero</t>
   </si>
   <si>
-    <t xml:space="preserve">Erro de uso da fórmula </t>
-  </si>
-  <si>
     <t>Erro no nome da fórmula</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
       </rPr>
       <t>strings</t>
     </r>
+  </si>
+  <si>
+    <t>Erro de uso da fórmula. Não achou o 'Word'</t>
   </si>
 </sst>
 </file>
@@ -649,17 +649,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -668,11 +658,6 @@
     <dxf>
       <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -3103,8 +3088,8 @@
   </sheetPr>
   <dimension ref="B6:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3216,8 +3201,8 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <f>3-1+2^3</f>
-        <v>10</v>
+        <f>3*1+2^3</f>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
@@ -3262,7 +3247,7 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="C13:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -3761,7 +3746,7 @@
   </sheetPr>
   <dimension ref="C5:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -3955,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:F82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E31"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4114,7 +4099,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" ref="E28:E31" ca="1" si="0">RANDBETWEEN(C28,D28)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4138,7 +4123,7 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4476,8 +4461,8 @@
   </sheetPr>
   <dimension ref="A4:E53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5103,18 +5088,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D5:D24">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E53">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Não ganha"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Ganha bônus"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5129,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5865,7 +5850,7 @@
     </row>
     <row r="58" spans="2:9" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="20" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C58" s="20">
         <f>VLOOKUP(B58,$G$5:$I$31,3,0)</f>
@@ -5873,7 +5858,7 @@
       </c>
       <c r="D58" s="30">
         <f>VLOOKUP(B58,$G$5:$I$31,2)</f>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -5886,10 +5871,10 @@
   </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5912,15 +5897,15 @@
   </sheetPr>
   <dimension ref="A12:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -5950,7 +5935,7 @@
         <v>#N/A</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>42</v>
@@ -5965,7 +5950,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -5986,7 +5971,7 @@
         <v>#NUM!</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5995,7 +5980,7 @@
         <v>#REF!</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6004,7 +5989,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
